--- a/biology/Zoologie/Eterusia/Eterusia.xlsx
+++ b/biology/Zoologie/Eterusia/Eterusia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eterusia est un genre de lépidoptères de la famille des Zygaenidae et de la sous-famille des Chalcosiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Eterusia se répartissent de l'Afghanistan jusqu'en Indonésie en passant par l'Inde, le Sri Lanka, la Birmanie et la Malaisie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Eterusia se répartissent de l'Afghanistan jusqu'en Indonésie en passant par l'Inde, le Sri Lanka, la Birmanie et la Malaisie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les imagos des espèces du genre Eterusia sont en général diurnes. Leur activité consiste principalement à visiter les sources de nectar de la canopée et à se poser à proximité des plantes-hôtes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les imagos des espèces du genre Eterusia sont en général diurnes. Leur activité consiste principalement à visiter les sources de nectar de la canopée et à se poser à proximité des plantes-hôtes.
 </t>
         </is>
       </c>
@@ -573,16 +589,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Eterusia a été décrit par le zoologiste britannique Frederick William Hope en 1841.
-L'espèce type est Eterusia tricolor[3].
-Synonymie
-Selon Yen et al., 2005[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Eterusia a été décrit par le zoologiste britannique Frederick William Hope en 1841.
+L'espèce type est Eterusia tricolor.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eterusia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eterusia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Yen et al., 2005 :
 Devanica Moore, 1884
-Sephisa Moore, [1882]
-Liste des espèces
-La systématique du genre Eterusia est confuse du fait de la similitude des dessins ornant les ailes des imagos. De nombreuses espèces placées à tort dans ce genre ont été transférées dans d'autres genres de la sous-famille des Chalcosiinae[2]. La liste des espèces du genre Eterusia présentée ci-dessous intègre de nombreux transferts et mises en synonymie[2].
+Sephisa Moore, </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eterusia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eterusia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La systématique du genre Eterusia est confuse du fait de la similitude des dessins ornant les ailes des imagos. De nombreuses espèces placées à tort dans ce genre ont été transférées dans d'autres genres de la sous-famille des Chalcosiinae. La liste des espèces du genre Eterusia présentée ci-dessous intègre de nombreux transferts et mises en synonymie.
 Eterusia aedea (Linnaeus, 1763)[Note 1]
 Eterusia angustipennis (Röber, 1897)
 Eterusia austrochinensis Yen, 2005
@@ -597,7 +684,7 @@
 Eterusia sublutea Walker, 1854
 Eterusia taiwana (Wileman, 1911)
 Eterusia tricolor Hope, 1841
-Eterusia vitessa Yen, 2003[10]
+Eterusia vitessa Yen, 2003
 Eterusia watanabei Inoue, 1982</t>
         </is>
       </c>
